--- a/Report/NbResults.xlsx
+++ b/Report/NbResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVENPORTD\Documents\GitHub\White-Shark-Breeders\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9313373-F07E-400B-9AAA-AE037CC84052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62458141-56B4-4C0A-9622-EDF6B3251F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10690" yWindow="2670" windowWidth="19420" windowHeight="10420" xr2:uid="{9FE64EDE-15BB-49C4-8671-466A4DB6B539}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9FE64EDE-15BB-49C4-8671-466A4DB6B539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,15 +449,15 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="5" max="5" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -527,7 +527,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -562,7 +562,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -597,7 +597,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -632,7 +632,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -643,48 +643,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2010</v>
       </c>
-      <c r="B8" s="5">
-        <v>63.170832007647938</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3.8979204288892988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>91.87</v>
+      </c>
+      <c r="C8">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2011</v>
       </c>
       <c r="B9" s="2">
-        <v>214.86367218877078</v>
+        <v>252.83211874171144</v>
       </c>
       <c r="C9" s="2">
-        <v>6.0716926664518969</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67.399577865000396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2012</v>
       </c>
       <c r="B10" s="2">
-        <v>216.243434806263</v>
+        <v>247.70678272529489</v>
       </c>
       <c r="C10" s="2">
-        <v>8.1793665492701475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50.300744598368887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2013</v>
       </c>
-      <c r="B11" s="2">
-        <v>184.37657043679243</v>
+      <c r="B11" s="5">
+        <v>197.81</v>
       </c>
       <c r="C11" s="2">
-        <v>8.6897367696093202</v>
+        <v>32.229999999999997</v>
       </c>
     </row>
   </sheetData>
